--- a/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
+++ b/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006038</t>
+          <t>090019</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>大成景恒混合C</t>
+          <t>大成景恒混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.31</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>090019</t>
+          <t>006038</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>大成景恒混合A</t>
+          <t>大成景恒混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>91.86</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.31</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>90.27</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>90.27</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
+++ b/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
+++ b/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
+++ b/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,14 +901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -896,14 +939,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -912,13 +1045,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
+++ b/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1029,7 +1072,97 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1045,14 +1178,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1194,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
+++ b/数据整理/stocks/A股/深证主板/002404-嘉欣丝绸.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>090019</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>大成景恒混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0104</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006038</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>大成景恒混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.17</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.86</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -648,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0464</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -686,26 +670,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.17</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>93.51</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0185</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -740,7 +724,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -780,26 +764,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0119</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +802,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +856,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -912,26 +896,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0119</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -950,26 +934,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0025</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1004,7 +988,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1044,26 +1028,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0464</t>
+          <t>0.0123</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1082,26 +1066,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>0.17</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.51</t>
+          <t>90.27</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0185</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1115,112 +1099,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
+          <t>090019</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>大成景恒混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.01</v>
+          <t>006038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成景恒混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>